--- a/mes_north_sea/clean_data/installed_capacities/InstalledCapacities_nonRE.xlsx
+++ b/mes_north_sea/clean_data/installed_capacities/InstalledCapacities_nonRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\mes_north_sea\clean_data\installed_capacities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D820807-676B-464F-83AA-C14D36DFCCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939E9072-FAF4-4C0F-BE53-F004B19571A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="388">
   <si>
     <t>id</t>
   </si>
@@ -26269,15 +26269,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EFD33F-2D87-464C-9C4A-FA94DDEE92F8}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>320</v>
       </c>
@@ -26320,17 +26320,8 @@
       <c r="N1" t="s">
         <v>386</v>
       </c>
-      <c r="O1" t="s">
-        <v>351</v>
-      </c>
-      <c r="P1" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>180</v>
       </c>
@@ -26385,20 +26376,8 @@
         <f>_xlfn.XLOOKUP(A2,demand_statistics!A:A,demand_statistics!F:F)</f>
         <v>4060.6812120807399</v>
       </c>
-      <c r="O2">
-        <f>K2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f t="shared" ref="P2:Q2" si="0">L2*H2</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -26454,20 +26433,8 @@
         <f>_xlfn.XLOOKUP(A3,demand_statistics!A:A,demand_statistics!F:F)</f>
         <v>10733.6981720117</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O17" si="1">K3*G3</f>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P17" si="2">L3*H3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q17" si="3">M3*I3</f>
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -26523,20 +26490,8 @@
         <f>_xlfn.XLOOKUP(A4,demand_statistics!A:A,demand_statistics!F:F)</f>
         <v>24851.191339480501</v>
       </c>
-      <c r="O4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -26592,20 +26547,8 @@
         <f>_xlfn.XLOOKUP(A5,demand_statistics!A:A,demand_statistics!F:F)</f>
         <v>3156.9238187543801</v>
       </c>
-      <c r="O5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -26661,20 +26604,8 @@
         <f>_xlfn.XLOOKUP(A6,demand_statistics!A:A,demand_statistics!F:F)</f>
         <v>7207.9954451692902</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="1"/>
-        <v>24.402825359245522</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="2"/>
-        <v>30.933450403342757</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="3"/>
-        <v>138.88424964134242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -26730,20 +26661,8 @@
         <f>_xlfn.XLOOKUP(A7,demand_statistics!A:A,demand_statistics!F:F)</f>
         <v>68005.886421090894</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>1272.5971746407545</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="2"/>
-        <v>1613.166549596657</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>7242.7557503586577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -26798,20 +26717,8 @@
         <f>_xlfn.XLOOKUP(A8,demand_statistics!A:A,demand_statistics!F:F)</f>
         <v>8956.8171025868505</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -26866,20 +26773,8 @@
         <f>_xlfn.XLOOKUP(A9,demand_statistics!A:A,demand_statistics!F:F)</f>
         <v>9940.02862413599</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -26934,20 +26829,8 @@
         <f>_xlfn.XLOOKUP(A10,demand_statistics!A:A,demand_statistics!F:F)</f>
         <v>5257.0552500440099</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -27002,20 +26885,8 @@
         <f>_xlfn.XLOOKUP(A11,demand_statistics!A:A,demand_statistics!F:F)</f>
         <v>3060.5461902239999</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -27070,20 +26941,8 @@
         <f>_xlfn.XLOOKUP(A12,demand_statistics!A:A,demand_statistics!F:F)</f>
         <v>6073.69050406918</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>279</v>
       </c>
@@ -27137,20 +26996,8 @@
         <f>_xlfn.XLOOKUP(A13,demand_statistics!A:A,demand_statistics!F:F)</f>
         <v>28665.525387320999</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="2"/>
-        <v>37829.865000000005</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>248</v>
       </c>
@@ -27206,20 +27053,8 @@
         <f>_xlfn.XLOOKUP(A14,demand_statistics!A:A,demand_statistics!F:F)</f>
         <v>3510.42659143423</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -27275,20 +27110,8 @@
         <f>_xlfn.XLOOKUP(A15,demand_statistics!A:A,demand_statistics!F:F)</f>
         <v>14964.1634459938</v>
       </c>
-      <c r="O15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -27344,20 +27167,8 @@
         <f>_xlfn.XLOOKUP(A16,demand_statistics!A:A,demand_statistics!F:F)</f>
         <v>6681.75599428033</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="3"/>
-        <v>1183.6750676942302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -27412,18 +27223,6 @@
       <c r="N17">
         <f>_xlfn.XLOOKUP(A17,demand_statistics!A:A,demand_statistics!F:F)</f>
         <v>33826.103803744001</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="3"/>
-        <v>1560.3249323057696</v>
       </c>
     </row>
   </sheetData>
